--- a/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMSI-REL\Desktop\Zhi Yi's Working Folder\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9BEBF598-5F91-4CC5-96ED-BB39DE38A1B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240FE94D-928C-4C3A-AFCF-3DC2665457FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25599" windowHeight="15995" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="LN2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3702,10 +3707,10 @@
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3922,9 +3927,9 @@
       <selection sqref="A1:B821"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8934,17 +8939,17 @@
   <dimension ref="A1:T398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M153" sqref="M153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.90625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">

--- a/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{077158DC-808C-42D2-BCD2-6A00A494EC08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E974C2BC-BCB1-4C54-9123-8E676F71B4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="15995" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="LN2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN2'!$A$1:$T$399</definedName>
+  </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -8931,11 +8934,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001"/>
@@ -9009,7 +9013,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" hidden="1">
       <c r="A2" s="19">
         <v>43014</v>
       </c>
@@ -9048,7 +9052,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" hidden="1">
       <c r="A3" s="19">
         <v>43014</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="21">
-        <f t="shared" ref="G3:G44" si="0">F4-F3</f>
+        <f t="shared" ref="G3:G43" si="0">F4-F3</f>
         <v>21</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -9079,7 +9083,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" hidden="1">
       <c r="A4" s="19">
         <v>43014</v>
       </c>
@@ -9110,7 +9114,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" hidden="1">
       <c r="A5" s="19">
         <v>43014</v>
       </c>
@@ -9172,7 +9176,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" hidden="1">
       <c r="A7" s="19">
         <v>43014</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" hidden="1">
       <c r="A8" s="19">
         <v>43014</v>
       </c>
@@ -9243,7 +9247,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" hidden="1">
       <c r="A9" s="19">
         <v>43014</v>
       </c>
@@ -9274,7 +9278,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="19">
         <v>43014</v>
       </c>
@@ -9305,7 +9309,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1">
       <c r="A11" s="19">
         <v>43014</v>
       </c>
@@ -9367,7 +9371,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" hidden="1">
       <c r="A13" s="19">
         <v>43014</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" hidden="1">
       <c r="A14" s="19">
         <v>43014</v>
       </c>
@@ -9438,7 +9442,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" hidden="1">
       <c r="A15" s="19">
         <v>43014</v>
       </c>
@@ -9469,7 +9473,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" hidden="1">
       <c r="A16" s="19">
         <v>43014</v>
       </c>
@@ -9500,7 +9504,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="19">
         <v>43014</v>
       </c>
@@ -9531,7 +9535,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="19">
         <v>43014</v>
       </c>
@@ -9562,7 +9566,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="19">
         <v>43014</v>
       </c>
@@ -9593,7 +9597,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="19">
         <v>43014</v>
       </c>
@@ -9624,7 +9628,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="19">
         <v>43014</v>
       </c>
@@ -9655,7 +9659,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="19">
         <v>43014</v>
       </c>
@@ -9686,7 +9690,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="19">
         <v>43014</v>
       </c>
@@ -9748,7 +9752,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="19">
         <v>43014</v>
       </c>
@@ -9819,7 +9823,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="19">
         <v>43014</v>
       </c>
@@ -9859,7 +9863,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="19">
         <v>43014</v>
       </c>
@@ -9890,7 +9894,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="19">
         <v>43014</v>
       </c>
@@ -9921,7 +9925,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="19">
         <v>43014</v>
       </c>
@@ -9952,7 +9956,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="19">
         <v>43014</v>
       </c>
@@ -9983,7 +9987,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="19">
         <v>43014</v>
       </c>
@@ -10014,7 +10018,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="19">
         <v>43014</v>
       </c>
@@ -10045,7 +10049,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="19">
         <v>43014</v>
       </c>
@@ -10076,7 +10080,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="19">
         <v>43014</v>
       </c>
@@ -10147,7 +10151,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="19">
         <v>43014</v>
       </c>
@@ -10187,7 +10191,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="19">
         <v>43014</v>
       </c>
@@ -10218,7 +10222,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="19">
         <v>43014</v>
       </c>
@@ -10249,7 +10253,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="19">
         <v>43014</v>
       </c>
@@ -10280,7 +10284,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="19">
         <v>43014</v>
       </c>
@@ -10313,7 +10317,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="19">
         <v>43014</v>
       </c>
@@ -10344,7 +10348,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="19">
         <v>43014</v>
       </c>
@@ -10377,7 +10381,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="19">
         <v>43014</v>
       </c>
@@ -10403,7 +10407,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="19">
         <v>43014</v>
       </c>
@@ -10474,7 +10478,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="19">
         <v>43014</v>
       </c>
@@ -10505,7 +10509,7 @@
       <c r="K47" s="29"/>
       <c r="L47" s="41"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="19">
         <v>43014</v>
       </c>
@@ -10536,7 +10540,7 @@
       <c r="K48" s="29"/>
       <c r="L48" s="41"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="19">
         <v>43014</v>
       </c>
@@ -10567,7 +10571,7 @@
       <c r="K49" s="29"/>
       <c r="L49" s="41"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="19">
         <v>43014</v>
       </c>
@@ -10598,7 +10602,7 @@
       <c r="K50" s="29"/>
       <c r="L50" s="41"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="19">
         <v>43014</v>
       </c>
@@ -10629,7 +10633,7 @@
       <c r="K51" s="29"/>
       <c r="L51" s="41"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="19">
         <v>43014</v>
       </c>
@@ -10660,7 +10664,7 @@
       <c r="K52" s="29"/>
       <c r="L52" s="41"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="19">
         <v>43014</v>
       </c>
@@ -10691,7 +10695,7 @@
       <c r="K53" s="29"/>
       <c r="L53" s="41"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="19">
         <v>43014</v>
       </c>
@@ -10722,7 +10726,7 @@
       <c r="K54" s="29"/>
       <c r="L54" s="41"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="19">
         <v>43014</v>
       </c>
@@ -10753,7 +10757,7 @@
       <c r="K55" s="29"/>
       <c r="L55" s="41"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="19">
         <v>43014</v>
       </c>
@@ -10784,7 +10788,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="41"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="19">
         <v>43014</v>
       </c>
@@ -10815,7 +10819,7 @@
       <c r="K57" s="29"/>
       <c r="L57" s="41"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="19">
         <v>43014</v>
       </c>
@@ -10846,7 +10850,7 @@
       <c r="K58" s="29"/>
       <c r="L58" s="41"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="19">
         <v>43014</v>
       </c>
@@ -10917,7 +10921,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="19">
         <v>43014</v>
       </c>
@@ -10948,7 +10952,7 @@
       <c r="K61" s="29"/>
       <c r="L61" s="41"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="19">
         <v>43014</v>
       </c>
@@ -10979,7 +10983,7 @@
       <c r="K62" s="29"/>
       <c r="L62" s="41"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="19">
         <v>43014</v>
       </c>
@@ -11010,7 +11014,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="41"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="19">
         <v>43014</v>
       </c>
@@ -11041,7 +11045,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="41"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="19">
         <v>43014</v>
       </c>
@@ -11112,7 +11116,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="19">
         <v>43014</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="19">
         <v>43014</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="19">
         <v>43014</v>
       </c>
@@ -11285,7 +11289,7 @@
       <c r="K71" s="29"/>
       <c r="L71" s="41"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="19">
         <v>43014</v>
       </c>
@@ -11318,7 +11322,7 @@
       <c r="K72" s="29"/>
       <c r="L72" s="41"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="19">
         <v>43014</v>
       </c>
@@ -11389,7 +11393,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="19">
         <v>43014</v>
       </c>
@@ -11420,7 +11424,7 @@
       <c r="K75" s="29"/>
       <c r="L75" s="41"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="19">
         <v>43014</v>
       </c>
@@ -11451,7 +11455,7 @@
       <c r="K76" s="29"/>
       <c r="L76" s="41"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="19">
         <v>43014</v>
       </c>
@@ -11482,7 +11486,7 @@
       <c r="K77" s="29"/>
       <c r="L77" s="41"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="19">
         <v>43014</v>
       </c>
@@ -11513,7 +11517,7 @@
       <c r="K78" s="29"/>
       <c r="L78" s="41"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="19">
         <v>43014</v>
       </c>
@@ -11544,7 +11548,7 @@
       <c r="K79" s="29"/>
       <c r="L79" s="41"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="19">
         <v>43014</v>
       </c>
@@ -11575,7 +11579,7 @@
       <c r="K80" s="29"/>
       <c r="L80" s="41"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="19">
         <v>43014</v>
       </c>
@@ -11606,7 +11610,7 @@
       <c r="K81" s="29"/>
       <c r="L81" s="41"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="19">
         <v>43014</v>
       </c>
@@ -11637,7 +11641,7 @@
       <c r="K82" s="29"/>
       <c r="L82" s="41"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="19">
         <v>43014</v>
       </c>
@@ -11668,7 +11672,7 @@
       <c r="K83" s="29"/>
       <c r="L83" s="41"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="19">
         <v>43014</v>
       </c>
@@ -11739,7 +11743,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="19">
         <v>43014</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="19">
         <v>43014</v>
       </c>
@@ -11841,7 +11845,7 @@
       <c r="K88" s="29"/>
       <c r="L88" s="41"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="19">
         <v>43014</v>
       </c>
@@ -11872,7 +11876,7 @@
       <c r="K89" s="29"/>
       <c r="L89" s="41"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="19">
         <v>43014</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="19">
         <v>43014</v>
       </c>
@@ -11974,7 +11978,7 @@
       <c r="K92" s="29"/>
       <c r="L92" s="41"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="19">
         <v>43014</v>
       </c>
@@ -12005,7 +12009,7 @@
       <c r="K93" s="29"/>
       <c r="L93" s="41"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="19">
         <v>43014</v>
       </c>
@@ -12036,7 +12040,7 @@
       <c r="K94" s="29"/>
       <c r="L94" s="41"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="19">
         <v>43014</v>
       </c>
@@ -12067,7 +12071,7 @@
       <c r="K95" s="29"/>
       <c r="L95" s="41"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="19">
         <v>43014</v>
       </c>
@@ -12098,7 +12102,7 @@
       <c r="K96" s="29"/>
       <c r="L96" s="41"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" s="19">
         <v>43014</v>
       </c>
@@ -12129,7 +12133,7 @@
       <c r="K97" s="29"/>
       <c r="L97" s="41"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="19">
         <v>43014</v>
       </c>
@@ -12160,7 +12164,7 @@
       <c r="K98" s="29"/>
       <c r="L98" s="41"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="19">
         <v>43014</v>
       </c>
@@ -12191,7 +12195,7 @@
       <c r="K99" s="29"/>
       <c r="L99" s="41"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="19">
         <v>43014</v>
       </c>
@@ -12222,7 +12226,7 @@
       <c r="K100" s="29"/>
       <c r="L100" s="41"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="19">
         <v>43014</v>
       </c>
@@ -12253,7 +12257,7 @@
       <c r="K101" s="29"/>
       <c r="L101" s="41"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="19">
         <v>43014</v>
       </c>
@@ -12284,7 +12288,7 @@
       <c r="K102" s="29"/>
       <c r="L102" s="41"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="19">
         <v>43014</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" s="19">
         <v>43014</v>
       </c>
@@ -12428,7 +12432,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="19">
         <v>43014</v>
       </c>
@@ -12459,7 +12463,7 @@
       <c r="K107" s="29"/>
       <c r="L107" s="41"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" s="19">
         <v>43014</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" s="19">
         <v>43014</v>
       </c>
@@ -12601,7 +12605,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" s="19">
         <v>43014</v>
       </c>
@@ -12632,7 +12636,7 @@
       <c r="K112" s="29"/>
       <c r="L112" s="41"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" s="19">
         <v>43014</v>
       </c>
@@ -12663,7 +12667,7 @@
       <c r="K113" s="29"/>
       <c r="L113" s="41"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="19">
         <v>43014</v>
       </c>
@@ -12694,7 +12698,7 @@
       <c r="K114" s="29"/>
       <c r="L114" s="41"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" s="19">
         <v>43014</v>
       </c>
@@ -12725,7 +12729,7 @@
       <c r="K115" s="29"/>
       <c r="L115" s="41"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="19">
         <v>43014</v>
       </c>
@@ -12756,7 +12760,7 @@
       <c r="K116" s="29"/>
       <c r="L116" s="41"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="19">
         <v>43014</v>
       </c>
@@ -12787,7 +12791,7 @@
       <c r="K117" s="29"/>
       <c r="L117" s="41"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="19">
         <v>43014</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="19">
         <v>43014</v>
       </c>
@@ -12889,7 +12893,7 @@
       <c r="K120" s="29"/>
       <c r="L120" s="41"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" s="19">
         <v>43014</v>
       </c>
@@ -12920,7 +12924,7 @@
       <c r="K121" s="29"/>
       <c r="L121" s="41"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" s="19">
         <v>43014</v>
       </c>
@@ -12951,7 +12955,7 @@
       <c r="K122" s="29"/>
       <c r="L122" s="41"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="19">
         <v>43014</v>
       </c>
@@ -12982,7 +12986,7 @@
       <c r="K123" s="29"/>
       <c r="L123" s="41"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" s="19">
         <v>43014</v>
       </c>
@@ -13013,7 +13017,7 @@
       <c r="K124" s="29"/>
       <c r="L124" s="41"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" s="19">
         <v>43014</v>
       </c>
@@ -13044,7 +13048,7 @@
       <c r="K125" s="29"/>
       <c r="L125" s="41"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="19">
         <v>43014</v>
       </c>
@@ -13075,7 +13079,7 @@
       <c r="K126" s="29"/>
       <c r="L126" s="41"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" s="19">
         <v>43014</v>
       </c>
@@ -13106,7 +13110,7 @@
       <c r="K127" s="29"/>
       <c r="L127" s="41"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="19">
         <v>43014</v>
       </c>
@@ -13137,7 +13141,7 @@
       <c r="K128" s="29"/>
       <c r="L128" s="41"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="19">
         <v>43014</v>
       </c>
@@ -13168,7 +13172,7 @@
       <c r="K129" s="29"/>
       <c r="L129" s="41"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="19">
         <v>43014</v>
       </c>
@@ -13199,7 +13203,7 @@
       <c r="K130" s="29"/>
       <c r="L130" s="41"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="19">
         <v>43014</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" s="19">
         <v>43014</v>
       </c>
@@ -13301,7 +13305,7 @@
       <c r="K133" s="29"/>
       <c r="L133" s="41"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="19">
         <v>43014</v>
       </c>
@@ -13332,7 +13336,7 @@
       <c r="K134" s="29"/>
       <c r="L134" s="41"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="19">
         <v>43014</v>
       </c>
@@ -13363,7 +13367,7 @@
       <c r="K135" s="29"/>
       <c r="L135" s="41"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="19">
         <v>43014</v>
       </c>
@@ -13394,7 +13398,7 @@
       <c r="K136" s="29"/>
       <c r="L136" s="41"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" s="19">
         <v>43014</v>
       </c>
@@ -13425,7 +13429,7 @@
       <c r="K137" s="29"/>
       <c r="L137" s="41"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="19">
         <v>43014</v>
       </c>
@@ -13456,7 +13460,7 @@
       <c r="K138" s="29"/>
       <c r="L138" s="41"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="19">
         <v>43014</v>
       </c>
@@ -13487,7 +13491,7 @@
       <c r="K139" s="29"/>
       <c r="L139" s="41"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="19">
         <v>43014</v>
       </c>
@@ -13518,7 +13522,7 @@
       <c r="K140" s="29"/>
       <c r="L140" s="41"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="19">
         <v>43014</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="19">
         <v>43014</v>
       </c>
@@ -13620,7 +13624,7 @@
       <c r="K143" s="29"/>
       <c r="L143" s="41"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="19">
         <v>43014</v>
       </c>
@@ -13651,7 +13655,7 @@
       <c r="K144" s="29"/>
       <c r="L144" s="41"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="19">
         <v>43014</v>
       </c>
@@ -13682,7 +13686,7 @@
       <c r="K145" s="29"/>
       <c r="L145" s="41"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="19">
         <v>43014</v>
       </c>
@@ -13713,7 +13717,7 @@
       <c r="K146" s="29"/>
       <c r="L146" s="41"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="19">
         <v>43014</v>
       </c>
@@ -13744,7 +13748,7 @@
       <c r="K147" s="29"/>
       <c r="L147" s="41"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="19">
         <v>43014</v>
       </c>
@@ -13775,7 +13779,7 @@
       <c r="K148" s="29"/>
       <c r="L148" s="41"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="19">
         <v>43014</v>
       </c>
@@ -13806,7 +13810,7 @@
       <c r="K149" s="29"/>
       <c r="L149" s="41"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="19">
         <v>43014</v>
       </c>
@@ -13837,7 +13841,7 @@
       <c r="K150" s="29"/>
       <c r="L150" s="41"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="19">
         <v>43014</v>
       </c>
@@ -13868,7 +13872,7 @@
       <c r="K151" s="29"/>
       <c r="L151" s="41"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="19">
         <v>43014</v>
       </c>
@@ -13899,7 +13903,7 @@
       <c r="K152" s="29"/>
       <c r="L152" s="41"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="19">
         <v>43014</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="19">
         <v>43014</v>
       </c>
@@ -14001,7 +14005,7 @@
       <c r="K155" s="29"/>
       <c r="L155" s="41"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="19">
         <v>43014</v>
       </c>
@@ -14032,7 +14036,7 @@
       <c r="K156" s="29"/>
       <c r="L156" s="41"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="19">
         <v>43014</v>
       </c>
@@ -14103,7 +14107,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="19">
         <v>43014</v>
       </c>
@@ -14134,7 +14138,7 @@
       <c r="K159" s="29"/>
       <c r="L159" s="41"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="19">
         <v>43014</v>
       </c>
@@ -14165,7 +14169,7 @@
       <c r="K160" s="29"/>
       <c r="L160" s="41"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="19">
         <v>43014</v>
       </c>
@@ -14196,7 +14200,7 @@
       <c r="K161" s="29"/>
       <c r="L161" s="41"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="19">
         <v>43014</v>
       </c>
@@ -14227,7 +14231,7 @@
       <c r="K162" s="29"/>
       <c r="L162" s="41"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="19">
         <v>43014</v>
       </c>
@@ -14258,7 +14262,7 @@
       <c r="K163" s="29"/>
       <c r="L163" s="41"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="19">
         <v>43014</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" s="19"/>
       <c r="B166" s="37"/>
       <c r="C166" s="10"/>
@@ -14388,7 +14392,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" s="19">
         <v>43014</v>
       </c>
@@ -14419,7 +14423,7 @@
       <c r="K168" s="32"/>
       <c r="L168" s="32"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="19">
         <v>43014</v>
       </c>
@@ -14450,7 +14454,7 @@
       <c r="K169" s="32"/>
       <c r="L169" s="32"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="19">
         <v>43014</v>
       </c>
@@ -14481,7 +14485,7 @@
       <c r="K170" s="32"/>
       <c r="L170" s="32"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="19">
         <v>43014</v>
       </c>
@@ -14513,7 +14517,7 @@
       <c r="J171" s="26"/>
       <c r="L171" s="32"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="19">
         <v>43014</v>
       </c>
@@ -14583,7 +14587,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="19">
         <v>43014</v>
       </c>
@@ -14614,7 +14618,7 @@
       <c r="K174" s="32"/>
       <c r="L174" s="32"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="19">
         <v>43014</v>
       </c>
@@ -14684,7 +14688,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="19">
         <v>43014</v>
       </c>
@@ -14715,7 +14719,7 @@
       <c r="K177" s="32"/>
       <c r="L177" s="32"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="19">
         <v>43014</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="19">
         <v>43014</v>
       </c>
@@ -14816,7 +14820,7 @@
       <c r="K180" s="32"/>
       <c r="L180" s="32"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="19">
         <v>43014</v>
       </c>
@@ -14847,7 +14851,7 @@
       <c r="K181" s="32"/>
       <c r="L181" s="32"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="19">
         <v>43014</v>
       </c>
@@ -14878,7 +14882,7 @@
       <c r="K182" s="32"/>
       <c r="L182" s="32"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="19">
         <v>43014</v>
       </c>
@@ -14910,7 +14914,7 @@
       <c r="J183" s="26"/>
       <c r="L183" s="32"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="19">
         <v>43014</v>
       </c>
@@ -14942,7 +14946,7 @@
       <c r="J184" s="26"/>
       <c r="L184" s="32"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="19">
         <v>43014</v>
       </c>
@@ -14972,7 +14976,7 @@
       <c r="J185" s="26"/>
       <c r="L185" s="32"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="19">
         <v>43014</v>
       </c>
@@ -15004,7 +15008,7 @@
       <c r="J186" s="26"/>
       <c r="L186" s="32"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="19">
         <v>43014</v>
       </c>
@@ -15034,7 +15038,7 @@
       <c r="J187" s="26"/>
       <c r="L187" s="32"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" s="19">
         <v>43014</v>
       </c>
@@ -15066,7 +15070,7 @@
       <c r="J188" s="26"/>
       <c r="L188" s="32"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" s="19">
         <v>43014</v>
       </c>
@@ -15096,7 +15100,7 @@
       <c r="J189" s="26"/>
       <c r="L189" s="32"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" s="19">
         <v>43014</v>
       </c>
@@ -15128,7 +15132,7 @@
       <c r="J190" s="26"/>
       <c r="L190" s="32"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="19">
         <v>43014</v>
       </c>
@@ -15158,7 +15162,7 @@
       <c r="J191" s="26"/>
       <c r="L191" s="32"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="19">
         <v>43014</v>
       </c>
@@ -15190,7 +15194,7 @@
       <c r="J192" s="26"/>
       <c r="L192" s="32"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="19">
         <v>43014</v>
       </c>
@@ -15220,7 +15224,7 @@
       <c r="J193" s="26"/>
       <c r="L193" s="32"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="19">
         <v>43014</v>
       </c>
@@ -15252,7 +15256,7 @@
       <c r="J194" s="26"/>
       <c r="L194" s="32"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="19">
         <v>43014</v>
       </c>
@@ -15282,7 +15286,7 @@
       <c r="J195" s="26"/>
       <c r="L195" s="32"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="19">
         <v>43014</v>
       </c>
@@ -15314,7 +15318,7 @@
       <c r="J196" s="26"/>
       <c r="L196" s="32"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="19">
         <v>43014</v>
       </c>
@@ -15345,7 +15349,7 @@
       <c r="K197" s="32"/>
       <c r="L197" s="32"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="19">
         <v>43014</v>
       </c>
@@ -15376,7 +15380,7 @@
       <c r="K198" s="32"/>
       <c r="L198" s="32"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="19">
         <v>43014</v>
       </c>
@@ -15447,7 +15451,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="19">
         <v>43014</v>
       </c>
@@ -15478,7 +15482,7 @@
       <c r="K201" s="32"/>
       <c r="L201" s="32"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="19">
         <v>43014</v>
       </c>
@@ -15510,7 +15514,7 @@
       <c r="J202" s="26"/>
       <c r="L202" s="32"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="19">
         <v>43014</v>
       </c>
@@ -15540,7 +15544,7 @@
       <c r="J203" s="26"/>
       <c r="L203" s="32"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="19">
         <v>43014</v>
       </c>
@@ -15570,7 +15574,7 @@
       <c r="J204" s="26"/>
       <c r="L204" s="32"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="19">
         <v>43014</v>
       </c>
@@ -15602,7 +15606,7 @@
       <c r="J205" s="26"/>
       <c r="L205" s="32"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="19">
         <v>43014</v>
       </c>
@@ -15634,7 +15638,7 @@
       <c r="J206" s="26"/>
       <c r="L206" s="32"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="19">
         <v>43014</v>
       </c>
@@ -15664,7 +15668,7 @@
       <c r="J207" s="26"/>
       <c r="L207" s="32"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="19">
         <v>43014</v>
       </c>
@@ -15694,7 +15698,7 @@
       <c r="J208" s="26"/>
       <c r="L208" s="32"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="19">
         <v>43014</v>
       </c>
@@ -15724,7 +15728,7 @@
       <c r="J209" s="26"/>
       <c r="L209" s="32"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="19">
         <v>43014</v>
       </c>
@@ -15756,7 +15760,7 @@
       <c r="J210" s="26"/>
       <c r="L210" s="32"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="19">
         <v>43014</v>
       </c>
@@ -15786,7 +15790,7 @@
       <c r="J211" s="26"/>
       <c r="L211" s="32"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="19">
         <v>43014</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="19">
         <v>43014</v>
       </c>
@@ -15889,7 +15893,7 @@
       <c r="J214" s="26"/>
       <c r="L214" s="32"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="19">
         <v>43014</v>
       </c>
@@ -15959,7 +15963,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="19">
         <v>43014</v>
       </c>
@@ -15990,7 +15994,7 @@
       <c r="K217" s="32"/>
       <c r="L217" s="32"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="19">
         <v>43014</v>
       </c>
@@ -16022,7 +16026,7 @@
       <c r="J218" s="26"/>
       <c r="L218" s="32"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="19">
         <v>43014</v>
       </c>
@@ -16053,7 +16057,7 @@
       <c r="K219" s="34"/>
       <c r="L219" s="32"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" s="19">
         <v>43014</v>
       </c>
@@ -16084,7 +16088,7 @@
       <c r="K220" s="34"/>
       <c r="L220" s="32"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" s="19">
         <v>43014</v>
       </c>
@@ -16115,7 +16119,7 @@
       <c r="K221" s="34"/>
       <c r="L221" s="32"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" s="19">
         <v>43014</v>
       </c>
@@ -16185,7 +16189,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="19">
         <v>43014</v>
       </c>
@@ -16254,7 +16258,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="19">
         <v>43014</v>
       </c>
@@ -16323,7 +16327,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="19">
         <v>43014</v>
       </c>
@@ -16353,7 +16357,7 @@
       <c r="K228" s="22"/>
       <c r="L228" s="32"/>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="19">
         <v>43014</v>
       </c>
@@ -16423,7 +16427,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="19">
         <v>43014</v>
       </c>
@@ -16492,7 +16496,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="19">
         <v>43014</v>
       </c>
@@ -16523,7 +16527,7 @@
       <c r="K233" s="34"/>
       <c r="L233" s="32"/>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="19">
         <v>43014</v>
       </c>
@@ -16554,7 +16558,7 @@
       <c r="K234" s="34"/>
       <c r="L234" s="32"/>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="19">
         <v>43014</v>
       </c>
@@ -16619,7 +16623,7 @@
       </c>
       <c r="L236" s="32"/>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="19">
         <v>43014</v>
       </c>
@@ -16650,7 +16654,7 @@
       <c r="K237" s="34"/>
       <c r="L237" s="32"/>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="19">
         <v>43014</v>
       </c>
@@ -16681,7 +16685,7 @@
       <c r="K238" s="34"/>
       <c r="L238" s="32"/>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" s="19">
         <v>43014</v>
       </c>
@@ -16712,7 +16716,7 @@
       <c r="K239" s="34"/>
       <c r="L239" s="32"/>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="19">
         <v>43014</v>
       </c>
@@ -16782,7 +16786,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="19">
         <v>43014</v>
       </c>
@@ -16813,7 +16817,7 @@
       <c r="K242" s="34"/>
       <c r="L242" s="32"/>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="19">
         <v>43014</v>
       </c>
@@ -16923,7 +16927,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" s="19">
         <v>43014</v>
       </c>
@@ -16954,7 +16958,7 @@
       <c r="K246" s="34"/>
       <c r="L246" s="32"/>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="19">
         <v>43014</v>
       </c>
@@ -16985,7 +16989,7 @@
       <c r="K247" s="34"/>
       <c r="L247" s="32"/>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="19">
         <v>43014</v>
       </c>
@@ -17016,7 +17020,7 @@
       <c r="K248" s="34"/>
       <c r="L248" s="32"/>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="19">
         <v>43014</v>
       </c>
@@ -17082,7 +17086,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" s="19">
         <v>43014</v>
       </c>
@@ -17113,7 +17117,7 @@
       <c r="K251" s="29"/>
       <c r="L251" s="22"/>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" s="19">
         <v>43014</v>
       </c>
@@ -17146,7 +17150,7 @@
       <c r="K252" s="29"/>
       <c r="L252" s="22"/>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" s="19">
         <v>43014</v>
       </c>
@@ -17217,7 +17221,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" s="19">
         <v>43014</v>
       </c>
@@ -17290,7 +17294,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" s="19">
         <v>43014</v>
       </c>
@@ -17363,7 +17367,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" s="19">
         <v>43014</v>
       </c>
@@ -17436,7 +17440,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" s="19">
         <v>43014</v>
       </c>
@@ -17509,7 +17513,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263" s="19">
         <v>43014</v>
       </c>
@@ -17540,7 +17544,7 @@
       <c r="K263" s="29"/>
       <c r="L263" s="22"/>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" s="19">
         <v>43014</v>
       </c>
@@ -17573,7 +17577,7 @@
       <c r="K264" s="29"/>
       <c r="L264" s="22"/>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" s="19">
         <v>43014</v>
       </c>
@@ -17606,7 +17610,7 @@
       <c r="K265" s="22"/>
       <c r="L265" s="22"/>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" s="19">
         <v>43014</v>
       </c>
@@ -17639,7 +17643,7 @@
       <c r="K266" s="22"/>
       <c r="L266" s="22"/>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" s="19">
         <v>43014</v>
       </c>
@@ -17670,7 +17674,7 @@
       <c r="K267" s="22"/>
       <c r="L267" s="22"/>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268" s="19">
         <v>43014</v>
       </c>
@@ -17703,7 +17707,7 @@
       <c r="K268" s="22"/>
       <c r="L268" s="22"/>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" s="19">
         <v>43014</v>
       </c>
@@ -17734,7 +17738,7 @@
       <c r="K269" s="22"/>
       <c r="L269" s="22"/>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" s="19">
         <v>43014</v>
       </c>
@@ -17767,7 +17771,7 @@
       <c r="K270" s="22"/>
       <c r="L270" s="22"/>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271" s="19">
         <v>43014</v>
       </c>
@@ -17798,7 +17802,7 @@
       <c r="K271" s="22"/>
       <c r="L271" s="22"/>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272" s="19">
         <v>43014</v>
       </c>
@@ -17831,7 +17835,7 @@
       <c r="K272" s="22"/>
       <c r="L272" s="22"/>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" hidden="1">
       <c r="A273" s="19">
         <v>43014</v>
       </c>
@@ -17862,7 +17866,7 @@
       <c r="K273" s="22"/>
       <c r="L273" s="22"/>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" hidden="1">
       <c r="A274" s="19">
         <v>43014</v>
       </c>
@@ -17895,7 +17899,7 @@
       <c r="K274" s="22"/>
       <c r="L274" s="22"/>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" hidden="1">
       <c r="A275" s="19">
         <v>43014</v>
       </c>
@@ -17928,7 +17932,7 @@
       <c r="K275" s="22"/>
       <c r="L275" s="22"/>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" hidden="1">
       <c r="A276" s="19">
         <v>43014</v>
       </c>
@@ -17959,7 +17963,7 @@
       <c r="K276" s="22"/>
       <c r="L276" s="22"/>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" hidden="1">
       <c r="A277" s="19">
         <v>43014</v>
       </c>
@@ -17992,7 +17996,7 @@
       <c r="K277" s="22"/>
       <c r="L277" s="22"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" hidden="1">
       <c r="A278" s="19">
         <v>43014</v>
       </c>
@@ -18025,7 +18029,7 @@
       <c r="K278" s="22"/>
       <c r="L278" s="22"/>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" hidden="1">
       <c r="A279" s="19">
         <v>43014</v>
       </c>
@@ -18056,7 +18060,7 @@
       <c r="K279" s="22"/>
       <c r="L279" s="22"/>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" hidden="1">
       <c r="A280" s="19">
         <v>43014</v>
       </c>
@@ -18089,7 +18093,7 @@
       <c r="K280" s="22"/>
       <c r="L280" s="22"/>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" hidden="1">
       <c r="A281" s="19">
         <v>43014</v>
       </c>
@@ -18155,7 +18159,7 @@
       </c>
       <c r="L282" s="22"/>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" hidden="1">
       <c r="A283" s="19">
         <v>43014</v>
       </c>
@@ -18186,7 +18190,7 @@
       <c r="K283" s="29"/>
       <c r="L283" s="22"/>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" hidden="1">
       <c r="A284" s="19">
         <v>43014</v>
       </c>
@@ -18219,7 +18223,7 @@
       <c r="K284" s="29"/>
       <c r="L284" s="22"/>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" hidden="1">
       <c r="A285" s="19">
         <v>43014</v>
       </c>
@@ -18252,7 +18256,7 @@
       <c r="K285" s="29"/>
       <c r="L285" s="22"/>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" hidden="1">
       <c r="A286" s="19">
         <v>43014</v>
       </c>
@@ -18283,7 +18287,7 @@
       <c r="K286" s="29"/>
       <c r="L286" s="22"/>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" hidden="1">
       <c r="A287" s="19">
         <v>43014</v>
       </c>
@@ -18314,7 +18318,7 @@
       <c r="K287" s="29"/>
       <c r="L287" s="22"/>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" hidden="1">
       <c r="A288" s="19">
         <v>43014</v>
       </c>
@@ -18347,7 +18351,7 @@
       <c r="K288" s="29"/>
       <c r="L288" s="22"/>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" hidden="1">
       <c r="A289" s="19">
         <v>43014</v>
       </c>
@@ -18380,7 +18384,7 @@
       <c r="K289" s="29"/>
       <c r="L289" s="22"/>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" hidden="1">
       <c r="A290" s="19">
         <v>43014</v>
       </c>
@@ -18413,7 +18417,7 @@
       <c r="K290" s="29"/>
       <c r="L290" s="22"/>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291" s="19">
         <v>43014</v>
       </c>
@@ -18444,7 +18448,7 @@
       <c r="K291" s="29"/>
       <c r="L291" s="22"/>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" hidden="1">
       <c r="A292" s="19">
         <v>43014</v>
       </c>
@@ -18477,7 +18481,7 @@
       <c r="K292" s="29"/>
       <c r="L292" s="22"/>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" hidden="1">
       <c r="A293" s="19">
         <v>43014</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" hidden="1">
       <c r="A295" s="19">
         <v>43014</v>
       </c>
@@ -18579,7 +18583,7 @@
       <c r="K295" s="29"/>
       <c r="L295" s="22"/>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" hidden="1">
       <c r="A296" s="19">
         <v>43014</v>
       </c>
@@ -18612,7 +18616,7 @@
       <c r="K296" s="29"/>
       <c r="L296" s="22"/>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297" s="19">
         <v>43014</v>
       </c>
@@ -18643,7 +18647,7 @@
       <c r="K297" s="22"/>
       <c r="L297" s="22"/>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" hidden="1">
       <c r="A298" s="19">
         <v>43014</v>
       </c>
@@ -18676,7 +18680,7 @@
       <c r="K298" s="22"/>
       <c r="L298" s="22"/>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" hidden="1">
       <c r="A299" s="19">
         <v>43014</v>
       </c>
@@ -18707,7 +18711,7 @@
       <c r="K299" s="22"/>
       <c r="L299" s="22"/>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300" s="19">
         <v>43014</v>
       </c>
@@ -18740,7 +18744,7 @@
       <c r="K300" s="22"/>
       <c r="L300" s="22"/>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" hidden="1">
       <c r="A301" s="19">
         <v>43014</v>
       </c>
@@ -18773,7 +18777,7 @@
       <c r="K301" s="22"/>
       <c r="L301" s="22"/>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" hidden="1">
       <c r="A302" s="19">
         <v>43014</v>
       </c>
@@ -18804,7 +18808,7 @@
       <c r="K302" s="22"/>
       <c r="L302" s="22"/>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303" s="19">
         <v>43014</v>
       </c>
@@ -18837,7 +18841,7 @@
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" hidden="1">
       <c r="A304" s="19">
         <v>43014</v>
       </c>
@@ -18868,7 +18872,7 @@
       <c r="K304" s="22"/>
       <c r="L304" s="22"/>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" hidden="1">
       <c r="A305" s="19">
         <v>43014</v>
       </c>
@@ -18901,7 +18905,7 @@
       <c r="K305" s="22"/>
       <c r="L305" s="22"/>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" hidden="1">
       <c r="A306" s="19">
         <v>43014</v>
       </c>
@@ -18936,7 +18940,7 @@
       <c r="K306" s="22"/>
       <c r="L306" s="22"/>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" hidden="1">
       <c r="A307" s="19">
         <v>43014</v>
       </c>
@@ -18967,7 +18971,7 @@
       <c r="K307" s="22"/>
       <c r="L307" s="22"/>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" hidden="1">
       <c r="A308" s="19">
         <v>43014</v>
       </c>
@@ -19000,7 +19004,7 @@
       <c r="K308" s="22"/>
       <c r="L308" s="22"/>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" hidden="1">
       <c r="A309" s="19">
         <v>43014</v>
       </c>
@@ -19031,7 +19035,7 @@
       <c r="K309" s="22"/>
       <c r="L309" s="22"/>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" hidden="1">
       <c r="A310" s="19">
         <v>43014</v>
       </c>
@@ -19064,7 +19068,7 @@
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" hidden="1">
       <c r="A311" s="19">
         <v>43014</v>
       </c>
@@ -19095,7 +19099,7 @@
       <c r="K311" s="22"/>
       <c r="L311" s="22"/>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" hidden="1">
       <c r="A312" s="19">
         <v>43014</v>
       </c>
@@ -19128,7 +19132,7 @@
       <c r="K312" s="22"/>
       <c r="L312" s="22"/>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" hidden="1">
       <c r="A313" s="19">
         <v>43014</v>
       </c>
@@ -19159,7 +19163,7 @@
       <c r="K313" s="29"/>
       <c r="L313" s="22"/>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" hidden="1">
       <c r="A314" s="19">
         <v>43014</v>
       </c>
@@ -19192,7 +19196,7 @@
       <c r="K314" s="29"/>
       <c r="L314" s="22"/>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" hidden="1">
       <c r="A315" s="19">
         <v>43014</v>
       </c>
@@ -19223,7 +19227,7 @@
       <c r="K315" s="29"/>
       <c r="L315" s="22"/>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" hidden="1">
       <c r="A316" s="19">
         <v>43014</v>
       </c>
@@ -19256,7 +19260,7 @@
       <c r="K316" s="29"/>
       <c r="L316" s="22"/>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" hidden="1">
       <c r="A317" s="19">
         <v>43014</v>
       </c>
@@ -19282,7 +19286,7 @@
       <c r="K317" s="29"/>
       <c r="L317" s="22"/>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" hidden="1">
       <c r="A318" s="19">
         <v>43014</v>
       </c>
@@ -19315,7 +19319,7 @@
       <c r="K318" s="22"/>
       <c r="L318" s="22"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" hidden="1">
       <c r="A319" s="19">
         <v>43014</v>
       </c>
@@ -19346,7 +19350,7 @@
       <c r="K319" s="29"/>
       <c r="L319" s="22"/>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" hidden="1">
       <c r="A320" s="19">
         <v>43014</v>
       </c>
@@ -19379,7 +19383,7 @@
       <c r="K320" s="29"/>
       <c r="L320" s="22"/>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" s="19">
         <v>43014</v>
       </c>
@@ -19412,7 +19416,7 @@
       <c r="K321" s="29"/>
       <c r="L321" s="22"/>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" hidden="1">
       <c r="A322" s="19">
         <v>43014</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" s="19">
         <v>43014</v>
       </c>
@@ -19516,7 +19520,7 @@
       <c r="K324" s="22"/>
       <c r="L324" s="22"/>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" hidden="1">
       <c r="A325" s="19">
         <v>43014</v>
       </c>
@@ -19547,7 +19551,7 @@
       <c r="K325" s="29"/>
       <c r="L325" s="22"/>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" s="19">
         <v>43014</v>
       </c>
@@ -19579,7 +19583,7 @@
       <c r="J326" s="10"/>
       <c r="K326" s="22"/>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" s="19">
         <v>43014</v>
       </c>
@@ -19611,7 +19615,7 @@
       <c r="J327" s="28"/>
       <c r="K327" s="29"/>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" s="19">
         <v>43014</v>
       </c>
@@ -19644,7 +19648,7 @@
       <c r="K328" s="22"/>
       <c r="L328" s="22"/>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" s="19">
         <v>43014</v>
       </c>
@@ -19675,7 +19679,7 @@
       <c r="K329" s="29"/>
       <c r="L329" s="22"/>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" s="19">
         <v>43014</v>
       </c>
@@ -19707,7 +19711,7 @@
       <c r="J330" s="10"/>
       <c r="K330" s="22"/>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" hidden="1">
       <c r="A331" s="19">
         <v>43014</v>
       </c>
@@ -19738,7 +19742,7 @@
       <c r="K331" s="29"/>
       <c r="L331" s="22"/>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" s="19">
         <v>43014</v>
       </c>
@@ -19771,7 +19775,7 @@
       <c r="K332" s="29"/>
       <c r="L332" s="22"/>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" s="19">
         <v>43014</v>
       </c>
@@ -19802,7 +19806,7 @@
       <c r="K333" s="22"/>
       <c r="L333" s="22"/>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" s="19">
         <v>43014</v>
       </c>
@@ -19835,7 +19839,7 @@
       <c r="K334" s="22"/>
       <c r="L334" s="22"/>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" s="19">
         <v>43014</v>
       </c>
@@ -19868,7 +19872,7 @@
       <c r="K335" s="22"/>
       <c r="L335" s="22"/>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" s="19">
         <v>43014</v>
       </c>
@@ -19899,7 +19903,7 @@
       <c r="K336" s="22"/>
       <c r="L336" s="22"/>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" hidden="1">
       <c r="A337" s="19">
         <v>43014</v>
       </c>
@@ -19932,7 +19936,7 @@
       <c r="K337" s="22"/>
       <c r="L337" s="22"/>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" hidden="1">
       <c r="A338" s="19">
         <v>43014</v>
       </c>
@@ -19963,7 +19967,7 @@
       <c r="K338" s="22"/>
       <c r="L338" s="22"/>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" hidden="1">
       <c r="A339" s="19">
         <v>43014</v>
       </c>
@@ -19996,7 +20000,7 @@
       <c r="K339" s="22"/>
       <c r="L339" s="22"/>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" hidden="1">
       <c r="A340" s="19">
         <v>43014</v>
       </c>
@@ -20027,7 +20031,7 @@
       <c r="K340" s="22"/>
       <c r="L340" s="22"/>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" hidden="1">
       <c r="A341" s="19">
         <v>43014</v>
       </c>
@@ -20060,7 +20064,7 @@
       <c r="K341" s="22"/>
       <c r="L341" s="22"/>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" hidden="1">
       <c r="A342" s="19">
         <v>43014</v>
       </c>
@@ -20091,7 +20095,7 @@
       <c r="K342" s="22"/>
       <c r="L342" s="22"/>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" hidden="1">
       <c r="A343" s="19">
         <v>43014</v>
       </c>
@@ -20124,7 +20128,7 @@
       <c r="K343" s="22"/>
       <c r="L343" s="22"/>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" hidden="1">
       <c r="A344" s="19">
         <v>43014</v>
       </c>
@@ -20155,7 +20159,7 @@
       <c r="K344" s="22"/>
       <c r="L344" s="22"/>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" hidden="1">
       <c r="A345" s="19">
         <v>43014</v>
       </c>
@@ -20188,7 +20192,7 @@
       <c r="K345" s="22"/>
       <c r="L345" s="22"/>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" hidden="1">
       <c r="A346" s="19">
         <v>43014</v>
       </c>
@@ -20219,7 +20223,7 @@
       <c r="K346" s="22"/>
       <c r="L346" s="22"/>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" hidden="1">
       <c r="A347" s="19">
         <v>43014</v>
       </c>
@@ -20250,7 +20254,7 @@
       <c r="K347" s="22"/>
       <c r="L347" s="22"/>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" hidden="1">
       <c r="A348" s="19">
         <v>43014</v>
       </c>
@@ -20283,7 +20287,7 @@
       <c r="K348" s="22"/>
       <c r="L348" s="22"/>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" hidden="1">
       <c r="A349" s="19">
         <v>43014</v>
       </c>
@@ -20314,7 +20318,7 @@
       <c r="K349" s="29"/>
       <c r="L349" s="22"/>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" hidden="1">
       <c r="A350" s="19">
         <v>43014</v>
       </c>
@@ -20345,7 +20349,7 @@
       <c r="K350" s="22"/>
       <c r="L350" s="22"/>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" hidden="1">
       <c r="A351" s="19">
         <v>43014</v>
       </c>
@@ -20416,7 +20420,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" hidden="1">
       <c r="A353" s="19">
         <v>43014</v>
       </c>
@@ -20447,7 +20451,7 @@
       <c r="K353" s="29"/>
       <c r="L353" s="22"/>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" hidden="1">
       <c r="A354" s="19">
         <v>43014</v>
       </c>
@@ -20480,7 +20484,7 @@
       <c r="K354" s="29"/>
       <c r="L354" s="22"/>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" hidden="1">
       <c r="A355" s="19">
         <v>43014</v>
       </c>
@@ -20513,7 +20517,7 @@
       <c r="K355" s="29"/>
       <c r="L355" s="22"/>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" hidden="1">
       <c r="A356" s="19">
         <v>43014</v>
       </c>
@@ -20544,7 +20548,7 @@
       <c r="K356" s="29"/>
       <c r="L356" s="22"/>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" hidden="1">
       <c r="A357" s="19">
         <v>43014</v>
       </c>
@@ -20577,7 +20581,7 @@
       <c r="K357" s="29"/>
       <c r="L357" s="22"/>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" hidden="1">
       <c r="A358" s="19">
         <v>43014</v>
       </c>
@@ -20608,7 +20612,7 @@
       <c r="K358" s="29"/>
       <c r="L358" s="22"/>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" hidden="1">
       <c r="A359" s="19">
         <v>43014</v>
       </c>
@@ -20641,7 +20645,7 @@
       <c r="K359" s="29"/>
       <c r="L359" s="22"/>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" hidden="1">
       <c r="A360" s="19">
         <v>43014</v>
       </c>
@@ -20673,7 +20677,7 @@
       <c r="J360" s="28"/>
       <c r="K360" s="29"/>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" hidden="1">
       <c r="A361" s="19">
         <v>43014</v>
       </c>
@@ -20706,7 +20710,7 @@
       <c r="K361" s="29"/>
       <c r="L361" s="22"/>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" hidden="1">
       <c r="A362" s="19">
         <v>43014</v>
       </c>
@@ -20737,7 +20741,7 @@
       <c r="K362" s="22"/>
       <c r="L362" s="22"/>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" hidden="1">
       <c r="A363" s="19">
         <v>43014</v>
       </c>
@@ -20770,7 +20774,7 @@
       <c r="K363" s="29"/>
       <c r="L363" s="22"/>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" hidden="1">
       <c r="A364" s="19">
         <v>43014</v>
       </c>
@@ -20841,7 +20845,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" hidden="1">
       <c r="A366" s="19">
         <v>43014</v>
       </c>
@@ -20872,7 +20876,7 @@
       <c r="K366" s="22"/>
       <c r="L366" s="22"/>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" hidden="1">
       <c r="A367" s="19">
         <v>43014</v>
       </c>
@@ -20905,7 +20909,7 @@
       <c r="K367" s="22"/>
       <c r="L367" s="22"/>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" hidden="1">
       <c r="A368" s="19">
         <v>43014</v>
       </c>
@@ -20976,7 +20980,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" hidden="1">
       <c r="A370" s="19">
         <v>43014</v>
       </c>
@@ -21007,7 +21011,7 @@
       <c r="K370" s="22"/>
       <c r="L370" s="22"/>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" hidden="1">
       <c r="A371" s="19">
         <v>43014</v>
       </c>
@@ -21040,7 +21044,7 @@
       <c r="K371" s="22"/>
       <c r="L371" s="22"/>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" hidden="1">
       <c r="A372" s="19">
         <v>43014</v>
       </c>
@@ -21111,7 +21115,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" hidden="1">
       <c r="A374" s="19">
         <v>43014</v>
       </c>
@@ -21142,7 +21146,7 @@
       <c r="K374" s="22"/>
       <c r="L374" s="22"/>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" hidden="1">
       <c r="A375" s="19">
         <v>43014</v>
       </c>
@@ -21173,7 +21177,7 @@
       <c r="K375" s="22"/>
       <c r="L375" s="22"/>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" hidden="1">
       <c r="A376" s="19">
         <v>43014</v>
       </c>
@@ -21244,7 +21248,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" hidden="1">
       <c r="A378" s="19">
         <v>43014</v>
       </c>
@@ -21275,7 +21279,7 @@
       <c r="K378" s="22"/>
       <c r="L378" s="22"/>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" hidden="1">
       <c r="A379" s="19">
         <v>43014</v>
       </c>
@@ -21308,7 +21312,7 @@
       <c r="K379" s="22"/>
       <c r="L379" s="22"/>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" hidden="1">
       <c r="A380" s="19">
         <v>43014</v>
       </c>
@@ -21340,7 +21344,7 @@
       <c r="J380" s="28"/>
       <c r="K380" s="22"/>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" hidden="1">
       <c r="A381" s="19">
         <v>43014</v>
       </c>
@@ -21373,7 +21377,7 @@
       <c r="K381" s="22"/>
       <c r="L381" s="22"/>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" hidden="1">
       <c r="A382" s="19">
         <v>43014</v>
       </c>
@@ -21444,7 +21448,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" hidden="1">
       <c r="A384" s="19">
         <v>43014</v>
       </c>
@@ -21555,7 +21559,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" hidden="1">
       <c r="A387" s="19">
         <v>43014</v>
       </c>
@@ -21586,7 +21590,7 @@
       <c r="K387" s="22"/>
       <c r="L387" s="22"/>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" hidden="1">
       <c r="A388" s="19">
         <v>43014</v>
       </c>
@@ -21618,7 +21622,7 @@
       <c r="J388" s="10"/>
       <c r="K388" s="22"/>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" hidden="1">
       <c r="A389" s="19">
         <v>43014</v>
       </c>
@@ -21651,7 +21655,7 @@
       <c r="K389" s="22"/>
       <c r="L389" s="22"/>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" hidden="1">
       <c r="A390" s="19">
         <v>43014</v>
       </c>
@@ -21682,7 +21686,7 @@
       <c r="K390" s="22"/>
       <c r="L390" s="22"/>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" hidden="1">
       <c r="A391" s="19">
         <v>43014</v>
       </c>
@@ -21714,7 +21718,7 @@
       <c r="J391" s="10"/>
       <c r="K391" s="22"/>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" hidden="1">
       <c r="A392" s="19">
         <v>43014</v>
       </c>
@@ -21745,7 +21749,7 @@
       <c r="K392" s="22"/>
       <c r="L392" s="22"/>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" hidden="1">
       <c r="A393" s="19">
         <v>43014</v>
       </c>
@@ -21817,7 +21821,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:13" hidden="1">
       <c r="A395" s="19">
         <v>43014</v>
       </c>
@@ -21849,7 +21853,7 @@
       <c r="J395" s="10"/>
       <c r="K395" s="22"/>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" hidden="1">
       <c r="A396" s="19">
         <v>43014</v>
       </c>
@@ -21880,7 +21884,7 @@
       <c r="K396" s="22"/>
       <c r="L396" s="22"/>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" hidden="1">
       <c r="A397" s="19">
         <v>43014</v>
       </c>
@@ -21912,7 +21916,7 @@
       <c r="J397" s="10"/>
       <c r="K397" s="22"/>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" hidden="1">
       <c r="A398" s="19">
         <v>43014</v>
       </c>
@@ -21938,13 +21942,20 @@
       <c r="K398" s="22"/>
       <c r="L398" s="22"/>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" hidden="1">
       <c r="G399" s="45">
         <f>SUM(G2:G398)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T399" xr:uid="{900E0AE2-D50A-4D52-B771-044C3E85A7D8}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="HC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E974C2BC-BCB1-4C54-9123-8E676F71B4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA4CBEE4-9961-44C2-9571-288C23EAAE4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="15995" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1014">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -3092,6 +3092,12 @@
   <si>
     <t>Dipsastraea favus</t>
   </si>
+  <si>
+    <t>Symphyllia recta</t>
+  </si>
+  <si>
+    <t>Tubastraea sp.</t>
+  </si>
 </sst>
 </file>
 
@@ -3102,7 +3108,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3215,6 +3221,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3275,7 +3289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3416,6 +3430,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8938,8 +8958,8 @@
   <dimension ref="A1:T399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N282" sqref="N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001"/>
@@ -9175,6 +9195,9 @@
       <c r="J6" s="10"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
+      <c r="M6" s="49" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="7" spans="1:20" hidden="1">
       <c r="A7" s="19">
@@ -9370,6 +9393,9 @@
       <c r="J12" s="10"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
+      <c r="M12" s="49" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="13" spans="1:20" hidden="1">
       <c r="A13" s="19">
@@ -9751,6 +9777,9 @@
       <c r="J24" s="10"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
+      <c r="M24" s="49" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="19">
@@ -9822,6 +9851,9 @@
       <c r="J26" s="10"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
+      <c r="M26" s="49" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="19">
@@ -10150,6 +10182,9 @@
       <c r="J36" s="10"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
+      <c r="M36" s="49" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="19">
@@ -16622,6 +16657,9 @@
         <v>948</v>
       </c>
       <c r="L236" s="32"/>
+      <c r="M236" s="50" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="19">
@@ -17835,7 +17873,7 @@
       <c r="K272" s="22"/>
       <c r="L272" s="22"/>
     </row>
-    <row r="273" spans="1:12" hidden="1">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" s="19">
         <v>43014</v>
       </c>
@@ -17866,7 +17904,7 @@
       <c r="K273" s="22"/>
       <c r="L273" s="22"/>
     </row>
-    <row r="274" spans="1:12" hidden="1">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" s="19">
         <v>43014</v>
       </c>
@@ -17899,7 +17937,7 @@
       <c r="K274" s="22"/>
       <c r="L274" s="22"/>
     </row>
-    <row r="275" spans="1:12" hidden="1">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" s="19">
         <v>43014</v>
       </c>
@@ -17932,7 +17970,7 @@
       <c r="K275" s="22"/>
       <c r="L275" s="22"/>
     </row>
-    <row r="276" spans="1:12" hidden="1">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" s="19">
         <v>43014</v>
       </c>
@@ -17963,7 +18001,7 @@
       <c r="K276" s="22"/>
       <c r="L276" s="22"/>
     </row>
-    <row r="277" spans="1:12" hidden="1">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="19">
         <v>43014</v>
       </c>
@@ -17996,7 +18034,7 @@
       <c r="K277" s="22"/>
       <c r="L277" s="22"/>
     </row>
-    <row r="278" spans="1:12" hidden="1">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" s="19">
         <v>43014</v>
       </c>
@@ -18029,7 +18067,7 @@
       <c r="K278" s="22"/>
       <c r="L278" s="22"/>
     </row>
-    <row r="279" spans="1:12" hidden="1">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" s="19">
         <v>43014</v>
       </c>
@@ -18060,7 +18098,7 @@
       <c r="K279" s="22"/>
       <c r="L279" s="22"/>
     </row>
-    <row r="280" spans="1:12" hidden="1">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280" s="19">
         <v>43014</v>
       </c>
@@ -18093,7 +18131,7 @@
       <c r="K280" s="22"/>
       <c r="L280" s="22"/>
     </row>
-    <row r="281" spans="1:12" hidden="1">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281" s="19">
         <v>43014</v>
       </c>
@@ -18124,7 +18162,7 @@
       <c r="K281" s="29"/>
       <c r="L281" s="22"/>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:13">
       <c r="A282" s="19">
         <v>43014</v>
       </c>
@@ -18158,8 +18196,11 @@
         <v>1003</v>
       </c>
       <c r="L282" s="22"/>
-    </row>
-    <row r="283" spans="1:12" hidden="1">
+      <c r="M282" s="49" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283" s="19">
         <v>43014</v>
       </c>
@@ -18190,7 +18231,7 @@
       <c r="K283" s="29"/>
       <c r="L283" s="22"/>
     </row>
-    <row r="284" spans="1:12" hidden="1">
+    <row r="284" spans="1:13" hidden="1">
       <c r="A284" s="19">
         <v>43014</v>
       </c>
@@ -18223,7 +18264,7 @@
       <c r="K284" s="29"/>
       <c r="L284" s="22"/>
     </row>
-    <row r="285" spans="1:12" hidden="1">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" s="19">
         <v>43014</v>
       </c>
@@ -18256,7 +18297,7 @@
       <c r="K285" s="29"/>
       <c r="L285" s="22"/>
     </row>
-    <row r="286" spans="1:12" hidden="1">
+    <row r="286" spans="1:13" hidden="1">
       <c r="A286" s="19">
         <v>43014</v>
       </c>
@@ -18287,7 +18328,7 @@
       <c r="K286" s="29"/>
       <c r="L286" s="22"/>
     </row>
-    <row r="287" spans="1:12" hidden="1">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287" s="19">
         <v>43014</v>
       </c>
@@ -18318,7 +18359,7 @@
       <c r="K287" s="29"/>
       <c r="L287" s="22"/>
     </row>
-    <row r="288" spans="1:12" hidden="1">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" s="19">
         <v>43014</v>
       </c>

--- a/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_06_Compiled_LN2_Shallow (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA4CBEE4-9961-44C2-9571-288C23EAAE4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{114BEC6B-F468-4682-809B-04D04273ECA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="15995" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1013">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -2908,9 +2908,6 @@
   </si>
   <si>
     <t>Porites lobata</t>
-  </si>
-  <si>
-    <t>EU</t>
   </si>
   <si>
     <t>Nepthea</t>
@@ -8957,9 +8954,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N282" sqref="N282"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H400" sqref="H400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001"/>
@@ -9165,7 +9162,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" hidden="1">
       <c r="A6" s="19">
         <v>43014</v>
       </c>
@@ -9363,7 +9360,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1">
       <c r="A12" s="19">
         <v>43014</v>
       </c>
@@ -9394,7 +9391,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:20" hidden="1">
@@ -9431,10 +9428,10 @@
         <v>913</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:20" hidden="1">
@@ -9747,7 +9744,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="19">
         <v>43014</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="19">
         <v>43014</v>
       </c>
@@ -10146,13 +10143,13 @@
         <v>916</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="19">
         <v>43014</v>
       </c>
@@ -10183,7 +10180,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="1:13" hidden="1">
@@ -10217,13 +10214,13 @@
         <v>2049</v>
       </c>
       <c r="K37" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>998</v>
-      </c>
       <c r="M37" s="22" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="38" spans="1:13" hidden="1">
@@ -10473,7 +10470,7 @@
       <c r="K45" s="29"/>
       <c r="L45" s="41"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="19">
         <v>43014</v>
       </c>
@@ -10504,7 +10501,7 @@
         <v>918</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L46" s="30" t="s">
         <v>919</v>
@@ -10916,7 +10913,7 @@
       <c r="K59" s="29"/>
       <c r="L59" s="41"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="19">
         <v>43014</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>920</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L60" s="30" t="s">
         <v>921</v>
@@ -11111,7 +11108,7 @@
       <c r="K65" s="29"/>
       <c r="L65" s="41"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="19">
         <v>43014</v>
       </c>
@@ -11148,7 +11145,7 @@
         <v>950</v>
       </c>
       <c r="M66" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="67" spans="1:13" hidden="1">
@@ -11182,7 +11179,7 @@
       <c r="K67" s="29"/>
       <c r="L67" s="41"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="19">
         <v>43014</v>
       </c>
@@ -11219,7 +11216,7 @@
         <v>950</v>
       </c>
       <c r="M68" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="69" spans="1:13" hidden="1">
@@ -11253,7 +11250,7 @@
       <c r="K69" s="29"/>
       <c r="L69" s="41"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="19">
         <v>43014</v>
       </c>
@@ -11290,7 +11287,7 @@
         <v>950</v>
       </c>
       <c r="M70" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="71" spans="1:13" hidden="1">
@@ -11388,7 +11385,7 @@
       <c r="K73" s="29"/>
       <c r="L73" s="41"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="19">
         <v>43014</v>
       </c>
@@ -11738,7 +11735,7 @@
       <c r="K84" s="29"/>
       <c r="L84" s="41"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="19">
         <v>43014</v>
       </c>
@@ -11809,7 +11806,7 @@
       <c r="K86" s="29"/>
       <c r="L86" s="41"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="19">
         <v>43014</v>
       </c>
@@ -11942,7 +11939,7 @@
       <c r="K90" s="29"/>
       <c r="L90" s="41"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="19">
         <v>43014</v>
       </c>
@@ -11973,7 +11970,7 @@
         <v>932</v>
       </c>
       <c r="K91" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L91" s="30" t="s">
         <v>919</v>
@@ -12354,7 +12351,7 @@
       <c r="K103" s="29"/>
       <c r="L103" s="41"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" s="19">
         <v>43014</v>
       </c>
@@ -12427,7 +12424,7 @@
       <c r="K105" s="29"/>
       <c r="L105" s="41"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" s="19">
         <v>43014</v>
       </c>
@@ -12529,7 +12526,7 @@
       <c r="K108" s="29"/>
       <c r="L108" s="41"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109" s="19">
         <v>43014</v>
       </c>
@@ -12560,7 +12557,7 @@
         <v>936</v>
       </c>
       <c r="K109" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L109" s="30" t="s">
         <v>919</v>
@@ -12600,7 +12597,7 @@
       <c r="K110" s="29"/>
       <c r="L110" s="41"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" s="19">
         <v>43014</v>
       </c>
@@ -12631,7 +12628,7 @@
         <v>937</v>
       </c>
       <c r="K111" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L111" s="30" t="s">
         <v>938</v>
@@ -12857,7 +12854,7 @@
       <c r="K118" s="29"/>
       <c r="L118" s="41"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="19">
         <v>43014</v>
       </c>
@@ -12888,13 +12885,13 @@
         <v>939</v>
       </c>
       <c r="K119" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L119" s="41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M119" s="48" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="120" spans="1:13" hidden="1">
@@ -13269,7 +13266,7 @@
       <c r="K131" s="29"/>
       <c r="L131" s="41"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="19">
         <v>43014</v>
       </c>
@@ -13306,7 +13303,7 @@
         <v>950</v>
       </c>
       <c r="M132" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="133" spans="1:13" hidden="1">
@@ -13588,7 +13585,7 @@
       <c r="K141" s="29"/>
       <c r="L141" s="41"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="19">
         <v>43014</v>
       </c>
@@ -13619,7 +13616,7 @@
         <v>941</v>
       </c>
       <c r="K142" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L142" s="30" t="s">
         <v>942</v>
@@ -13969,7 +13966,7 @@
       <c r="K153" s="29"/>
       <c r="L153" s="41"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="19">
         <v>43014</v>
       </c>
@@ -14000,13 +13997,13 @@
         <v>943</v>
       </c>
       <c r="K154" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L154" s="41" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M154" s="43" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="155" spans="1:13" hidden="1">
@@ -14102,7 +14099,7 @@
       <c r="K157" s="29"/>
       <c r="L157" s="41"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="19">
         <v>43014</v>
       </c>
@@ -14133,7 +14130,7 @@
         <v>944</v>
       </c>
       <c r="K158" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L158" s="30" t="s">
         <v>938</v>
@@ -14328,7 +14325,7 @@
       <c r="K164" s="29"/>
       <c r="L164" s="41"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="19">
         <v>43014</v>
       </c>
@@ -14365,7 +14362,7 @@
         <v>950</v>
       </c>
       <c r="M165" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="166" spans="1:13" hidden="1">
@@ -14388,7 +14385,7 @@
       <c r="K166" s="30"/>
       <c r="L166" s="32"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" s="19">
         <v>43014</v>
       </c>
@@ -14424,7 +14421,7 @@
         <v>950</v>
       </c>
       <c r="M167" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="168" spans="1:13" hidden="1">
@@ -14489,7 +14486,7 @@
       <c r="K169" s="32"/>
       <c r="L169" s="32"/>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" s="19">
         <v>43014</v>
       </c>
@@ -14513,7 +14510,7 @@
         <v>35</v>
       </c>
       <c r="H170" s="26" t="s">
-        <v>951</v>
+        <v>86</v>
       </c>
       <c r="I170" s="26"/>
       <c r="J170" s="26"/>
@@ -14547,7 +14544,7 @@
         <v>70</v>
       </c>
       <c r="I171" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J171" s="26"/>
       <c r="L171" s="32"/>
@@ -14583,7 +14580,7 @@
       <c r="K172" s="32"/>
       <c r="L172" s="32"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="19">
         <v>43014</v>
       </c>
@@ -14610,16 +14607,16 @@
         <v>911</v>
       </c>
       <c r="J173" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="K173" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="L173" s="32" t="s">
         <v>954</v>
       </c>
-      <c r="K173" s="30" t="s">
-        <v>953</v>
-      </c>
-      <c r="L173" s="32" t="s">
-        <v>955</v>
-      </c>
       <c r="M173" s="32" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="174" spans="1:13" hidden="1">
@@ -14684,7 +14681,7 @@
       <c r="K175" s="32"/>
       <c r="L175" s="32"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="19">
         <v>43014</v>
       </c>
@@ -14711,10 +14708,10 @@
         <v>911</v>
       </c>
       <c r="J176" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K176" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L176" s="32" t="s">
         <v>919</v>
@@ -14785,7 +14782,7 @@
       <c r="K178" s="32"/>
       <c r="L178" s="32"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="19">
         <v>43014</v>
       </c>
@@ -14815,13 +14812,13 @@
         <v>6172</v>
       </c>
       <c r="K179" s="30" t="s">
+        <v>957</v>
+      </c>
+      <c r="L179" s="32" t="s">
         <v>958</v>
       </c>
-      <c r="L179" s="32" t="s">
-        <v>959</v>
-      </c>
       <c r="M179" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="180" spans="1:13" hidden="1">
@@ -14944,7 +14941,7 @@
         <v>68</v>
       </c>
       <c r="I183" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J183" s="26"/>
       <c r="L183" s="32"/>
@@ -14976,7 +14973,7 @@
         <v>68</v>
       </c>
       <c r="I184" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J184" s="26"/>
       <c r="L184" s="32"/>
@@ -15038,7 +15035,7 @@
         <v>68</v>
       </c>
       <c r="I186" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J186" s="26"/>
       <c r="L186" s="32"/>
@@ -15100,7 +15097,7 @@
         <v>68</v>
       </c>
       <c r="I188" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J188" s="26"/>
       <c r="L188" s="32"/>
@@ -15162,7 +15159,7 @@
         <v>68</v>
       </c>
       <c r="I190" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J190" s="26"/>
       <c r="L190" s="32"/>
@@ -15224,7 +15221,7 @@
         <v>68</v>
       </c>
       <c r="I192" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J192" s="26"/>
       <c r="L192" s="32"/>
@@ -15286,7 +15283,7 @@
         <v>68</v>
       </c>
       <c r="I194" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J194" s="26"/>
       <c r="L194" s="32"/>
@@ -15348,7 +15345,7 @@
         <v>68</v>
       </c>
       <c r="I196" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J196" s="26"/>
       <c r="L196" s="32"/>
@@ -15442,12 +15439,12 @@
         <v>68</v>
       </c>
       <c r="I199" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J199" s="26"/>
       <c r="L199" s="32"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="19">
         <v>43014</v>
       </c>
@@ -15474,7 +15471,7 @@
         <v>911</v>
       </c>
       <c r="J200" s="26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K200" s="30" t="s">
         <v>915</v>
@@ -15544,7 +15541,7 @@
         <v>70</v>
       </c>
       <c r="I202" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J202" s="26"/>
       <c r="L202" s="32"/>
@@ -15636,7 +15633,7 @@
         <v>68</v>
       </c>
       <c r="I205" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J205" s="26"/>
       <c r="L205" s="32"/>
@@ -15668,7 +15665,7 @@
         <v>80</v>
       </c>
       <c r="I206" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J206" s="26"/>
       <c r="L206" s="32"/>
@@ -15790,7 +15787,7 @@
         <v>68</v>
       </c>
       <c r="I210" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J210" s="26"/>
       <c r="L210" s="32"/>
@@ -15852,12 +15849,12 @@
         <v>68</v>
       </c>
       <c r="I212" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J212" s="26"/>
       <c r="L212" s="32"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="19">
         <v>43014</v>
       </c>
@@ -15884,16 +15881,16 @@
         <v>911</v>
       </c>
       <c r="J213" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="K213" s="30" t="s">
+        <v>962</v>
+      </c>
+      <c r="L213" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="K213" s="30" t="s">
-        <v>963</v>
-      </c>
-      <c r="L213" s="32" t="s">
-        <v>965</v>
-      </c>
       <c r="M213" s="32" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="214" spans="1:13" hidden="1">
@@ -15923,7 +15920,7 @@
         <v>80</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J214" s="26"/>
       <c r="L214" s="32"/>
@@ -15959,7 +15956,7 @@
       <c r="K215" s="32"/>
       <c r="L215" s="32"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="19">
         <v>43014</v>
       </c>
@@ -15986,7 +15983,7 @@
         <v>911</v>
       </c>
       <c r="J216" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K216" s="30" t="s">
         <v>948</v>
@@ -15995,7 +15992,7 @@
         <v>923</v>
       </c>
       <c r="M216" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="217" spans="1:13" hidden="1">
@@ -16056,7 +16053,7 @@
         <v>70</v>
       </c>
       <c r="I218" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J218" s="26"/>
       <c r="L218" s="32"/>
@@ -16185,7 +16182,7 @@
       <c r="K222" s="34"/>
       <c r="L222" s="32"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="19">
         <v>43014</v>
       </c>
@@ -16212,7 +16209,7 @@
         <v>911</v>
       </c>
       <c r="J223" s="33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K223" s="44" t="s">
         <v>948</v>
@@ -16221,7 +16218,7 @@
         <v>950</v>
       </c>
       <c r="M223" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="224" spans="1:13" hidden="1">
@@ -16254,7 +16251,7 @@
       <c r="K224" s="44"/>
       <c r="L224" s="32"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="19">
         <v>43014</v>
       </c>
@@ -16281,7 +16278,7 @@
         <v>911</v>
       </c>
       <c r="J225" s="33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K225" s="44" t="s">
         <v>948</v>
@@ -16290,7 +16287,7 @@
         <v>950</v>
       </c>
       <c r="M225" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="226" spans="1:13" hidden="1">
@@ -16323,7 +16320,7 @@
       <c r="K226" s="22"/>
       <c r="L226" s="32"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="19">
         <v>43014</v>
       </c>
@@ -16350,7 +16347,7 @@
         <v>911</v>
       </c>
       <c r="J227" s="33" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K227" s="44" t="s">
         <v>912</v>
@@ -16423,7 +16420,7 @@
       <c r="K229" s="34"/>
       <c r="L229" s="32"/>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="19">
         <v>43014</v>
       </c>
@@ -16450,16 +16447,16 @@
         <v>911</v>
       </c>
       <c r="J230" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="K230" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="L230" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="K230" s="44" t="s">
-        <v>963</v>
-      </c>
-      <c r="L230" s="32" t="s">
-        <v>971</v>
-      </c>
       <c r="M230" s="32" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="231" spans="1:13" hidden="1">
@@ -16492,7 +16489,7 @@
       <c r="K231" s="44"/>
       <c r="L231" s="32"/>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="19">
         <v>43014</v>
       </c>
@@ -16519,16 +16516,16 @@
         <v>911</v>
       </c>
       <c r="J232" s="33" t="s">
+        <v>972</v>
+      </c>
+      <c r="K232" s="44" t="s">
+        <v>971</v>
+      </c>
+      <c r="L232" s="32" t="s">
         <v>973</v>
       </c>
-      <c r="K232" s="44" t="s">
-        <v>972</v>
-      </c>
-      <c r="L232" s="32" t="s">
-        <v>974</v>
-      </c>
       <c r="M232" s="32" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="233" spans="1:13" hidden="1">
@@ -16624,7 +16621,7 @@
       <c r="K235" s="34"/>
       <c r="L235" s="32"/>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" s="19">
         <v>43014</v>
       </c>
@@ -16651,14 +16648,14 @@
         <v>911</v>
       </c>
       <c r="J236" s="33" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K236" s="44" t="s">
         <v>948</v>
       </c>
       <c r="L236" s="32"/>
       <c r="M236" s="50" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="237" spans="1:13" hidden="1">
@@ -16785,7 +16782,7 @@
       <c r="K240" s="34"/>
       <c r="L240" s="32"/>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="19">
         <v>43014</v>
       </c>
@@ -16812,10 +16809,10 @@
         <v>911</v>
       </c>
       <c r="J241" s="33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K241" s="44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L241" s="32" t="s">
         <v>942</v>
@@ -16882,12 +16879,12 @@
         <v>68</v>
       </c>
       <c r="I243" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J243" s="33"/>
       <c r="L243" s="32"/>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="19">
         <v>43014</v>
       </c>
@@ -16914,10 +16911,10 @@
         <v>911</v>
       </c>
       <c r="J244" s="33" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K244" s="44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L244" s="32" t="s">
         <v>942</v>
@@ -16926,7 +16923,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" s="19">
         <v>43014</v>
       </c>
@@ -16953,10 +16950,10 @@
         <v>911</v>
       </c>
       <c r="J245" s="33" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K245" s="44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L245" s="32" t="s">
         <v>919</v>
@@ -17084,7 +17081,7 @@
       <c r="K249" s="22"/>
       <c r="L249" s="22"/>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" s="19">
         <v>43014</v>
       </c>
@@ -17095,7 +17092,7 @@
         <v>946</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E250" s="10">
         <v>4</v>
@@ -17115,13 +17112,13 @@
         <v>1112</v>
       </c>
       <c r="K250" s="22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L250" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M250" s="32" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="251" spans="1:13" hidden="1">
@@ -17135,7 +17132,7 @@
         <v>946</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E251" s="10">
         <v>4</v>
@@ -17166,7 +17163,7 @@
         <v>946</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E252" s="10">
         <v>4</v>
@@ -17182,7 +17179,7 @@
         <v>68</v>
       </c>
       <c r="I252" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J252" s="28"/>
       <c r="K252" s="29"/>
@@ -17199,7 +17196,7 @@
         <v>946</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E253" s="10">
         <v>4</v>
@@ -17219,7 +17216,7 @@
       <c r="K253" s="29"/>
       <c r="L253" s="22"/>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" s="19">
         <v>43014</v>
       </c>
@@ -17230,7 +17227,7 @@
         <v>946</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E254" s="10">
         <v>4</v>
@@ -17270,7 +17267,7 @@
         <v>946</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E255" s="10">
         <v>4</v>
@@ -17286,13 +17283,13 @@
         <v>70</v>
       </c>
       <c r="I255" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J255" s="28"/>
       <c r="K255" s="29"/>
       <c r="L255" s="22"/>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" s="19">
         <v>43014</v>
       </c>
@@ -17303,7 +17300,7 @@
         <v>946</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E256" s="10">
         <v>4</v>
@@ -17329,7 +17326,7 @@
         <v>950</v>
       </c>
       <c r="M256" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="257" spans="1:13" hidden="1">
@@ -17343,7 +17340,7 @@
         <v>946</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E257" s="10">
         <v>4</v>
@@ -17359,13 +17356,13 @@
         <v>80</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J257" s="28"/>
       <c r="K257" s="29"/>
       <c r="L257" s="22"/>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" s="19">
         <v>43014</v>
       </c>
@@ -17376,7 +17373,7 @@
         <v>946</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E258" s="10">
         <v>4</v>
@@ -17402,7 +17399,7 @@
         <v>950</v>
       </c>
       <c r="M258" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="259" spans="1:13" hidden="1">
@@ -17416,7 +17413,7 @@
         <v>946</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E259" s="10">
         <v>4</v>
@@ -17432,13 +17429,13 @@
         <v>80</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J259" s="28"/>
       <c r="K259" s="29"/>
       <c r="L259" s="22"/>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" s="19">
         <v>43014</v>
       </c>
@@ -17449,7 +17446,7 @@
         <v>946</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E260" s="10">
         <v>4</v>
@@ -17469,7 +17466,7 @@
         <v>1115</v>
       </c>
       <c r="K260" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L260" s="22" t="s">
         <v>938</v>
@@ -17489,7 +17486,7 @@
         <v>946</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E261" s="10">
         <v>4</v>
@@ -17505,13 +17502,13 @@
         <v>80</v>
       </c>
       <c r="I261" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J261" s="28"/>
       <c r="K261" s="29"/>
       <c r="L261" s="22"/>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" s="19">
         <v>43014</v>
       </c>
@@ -17522,7 +17519,7 @@
         <v>946</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E262" s="10">
         <v>4</v>
@@ -17562,7 +17559,7 @@
         <v>946</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E263" s="10">
         <v>4</v>
@@ -17593,7 +17590,7 @@
         <v>946</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E264" s="10">
         <v>4</v>
@@ -17609,7 +17606,7 @@
         <v>70</v>
       </c>
       <c r="I264" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J264" s="28"/>
       <c r="K264" s="29"/>
@@ -17626,7 +17623,7 @@
         <v>946</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E265" s="10">
         <v>4</v>
@@ -17642,7 +17639,7 @@
         <v>76</v>
       </c>
       <c r="I265" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J265" s="10"/>
       <c r="K265" s="22"/>
@@ -17659,7 +17656,7 @@
         <v>946</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E266" s="10">
         <v>4</v>
@@ -17675,7 +17672,7 @@
         <v>70</v>
       </c>
       <c r="I266" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J266" s="10"/>
       <c r="K266" s="22"/>
@@ -17692,7 +17689,7 @@
         <v>946</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E267" s="10">
         <v>4</v>
@@ -17723,7 +17720,7 @@
         <v>946</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E268" s="10">
         <v>4</v>
@@ -17739,7 +17736,7 @@
         <v>76</v>
       </c>
       <c r="I268" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J268" s="10"/>
       <c r="K268" s="22"/>
@@ -17756,7 +17753,7 @@
         <v>946</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E269" s="10">
         <v>4</v>
@@ -17787,7 +17784,7 @@
         <v>946</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E270" s="10">
         <v>4</v>
@@ -17803,7 +17800,7 @@
         <v>70</v>
       </c>
       <c r="I270" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J270" s="10"/>
       <c r="K270" s="22"/>
@@ -17820,7 +17817,7 @@
         <v>946</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E271" s="10">
         <v>4</v>
@@ -17851,7 +17848,7 @@
         <v>946</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E272" s="10">
         <v>4</v>
@@ -17867,7 +17864,7 @@
         <v>80</v>
       </c>
       <c r="I272" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J272" s="10"/>
       <c r="K272" s="22"/>
@@ -17884,7 +17881,7 @@
         <v>946</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E273" s="10">
         <v>4</v>
@@ -17915,7 +17912,7 @@
         <v>946</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E274" s="10">
         <v>4</v>
@@ -17931,7 +17928,7 @@
         <v>914</v>
       </c>
       <c r="I274" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J274" s="10"/>
       <c r="K274" s="22"/>
@@ -17948,7 +17945,7 @@
         <v>946</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E275" s="10">
         <v>4</v>
@@ -17964,7 +17961,7 @@
         <v>68</v>
       </c>
       <c r="I275" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J275" s="10"/>
       <c r="K275" s="22"/>
@@ -17981,7 +17978,7 @@
         <v>946</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E276" s="10">
         <v>4</v>
@@ -18012,7 +18009,7 @@
         <v>946</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E277" s="10">
         <v>4</v>
@@ -18028,7 +18025,7 @@
         <v>80</v>
       </c>
       <c r="I277" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J277" s="10"/>
       <c r="K277" s="22"/>
@@ -18045,7 +18042,7 @@
         <v>946</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E278" s="10">
         <v>4</v>
@@ -18061,7 +18058,7 @@
         <v>68</v>
       </c>
       <c r="I278" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J278" s="10"/>
       <c r="K278" s="22"/>
@@ -18078,7 +18075,7 @@
         <v>946</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E279" s="10">
         <v>4</v>
@@ -18109,7 +18106,7 @@
         <v>946</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E280" s="10">
         <v>4</v>
@@ -18125,7 +18122,7 @@
         <v>70</v>
       </c>
       <c r="I280" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J280" s="10"/>
       <c r="K280" s="22"/>
@@ -18142,7 +18139,7 @@
         <v>946</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E281" s="10">
         <v>4</v>
@@ -18162,7 +18159,7 @@
       <c r="K281" s="29"/>
       <c r="L281" s="22"/>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282" s="19">
         <v>43014</v>
       </c>
@@ -18173,7 +18170,7 @@
         <v>946</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E282" s="10">
         <v>4</v>
@@ -18193,11 +18190,11 @@
         <v>1117</v>
       </c>
       <c r="K282" s="22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L282" s="22"/>
       <c r="M282" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="283" spans="1:13" hidden="1">
@@ -18211,7 +18208,7 @@
         <v>946</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E283" s="10">
         <v>4</v>
@@ -18242,7 +18239,7 @@
         <v>946</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E284" s="10">
         <v>4</v>
@@ -18258,7 +18255,7 @@
         <v>80</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J284" s="28"/>
       <c r="K284" s="29"/>
@@ -18275,7 +18272,7 @@
         <v>946</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E285" s="10">
         <v>4</v>
@@ -18291,7 +18288,7 @@
         <v>70</v>
       </c>
       <c r="I285" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J285" s="28"/>
       <c r="K285" s="29"/>
@@ -18308,7 +18305,7 @@
         <v>946</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E286" s="10">
         <v>4</v>
@@ -18339,7 +18336,7 @@
         <v>946</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E287" s="10">
         <v>4</v>
@@ -18370,7 +18367,7 @@
         <v>946</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E288" s="10">
         <v>4</v>
@@ -18386,7 +18383,7 @@
         <v>70</v>
       </c>
       <c r="I288" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J288" s="28"/>
       <c r="K288" s="29"/>
@@ -18403,7 +18400,7 @@
         <v>946</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E289" s="10">
         <v>4</v>
@@ -18419,7 +18416,7 @@
         <v>68</v>
       </c>
       <c r="I289" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J289" s="28"/>
       <c r="K289" s="29"/>
@@ -18436,7 +18433,7 @@
         <v>946</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E290" s="10">
         <v>4</v>
@@ -18452,7 +18449,7 @@
         <v>70</v>
       </c>
       <c r="I290" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J290" s="28"/>
       <c r="K290" s="29"/>
@@ -18469,7 +18466,7 @@
         <v>946</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E291" s="10">
         <v>4</v>
@@ -18500,7 +18497,7 @@
         <v>946</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E292" s="10">
         <v>4</v>
@@ -18516,7 +18513,7 @@
         <v>70</v>
       </c>
       <c r="I292" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J292" s="28"/>
       <c r="K292" s="29"/>
@@ -18533,7 +18530,7 @@
         <v>946</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E293" s="10">
         <v>4</v>
@@ -18553,7 +18550,7 @@
       <c r="K293" s="29"/>
       <c r="L293" s="22"/>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294" s="19">
         <v>43014</v>
       </c>
@@ -18564,7 +18561,7 @@
         <v>946</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E294" s="10">
         <v>4</v>
@@ -18584,7 +18581,7 @@
         <v>1118</v>
       </c>
       <c r="K294" s="22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L294" s="22" t="s">
         <v>919</v>
@@ -18604,7 +18601,7 @@
         <v>946</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E295" s="10">
         <v>4</v>
@@ -18635,7 +18632,7 @@
         <v>946</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E296" s="10">
         <v>4</v>
@@ -18651,7 +18648,7 @@
         <v>70</v>
       </c>
       <c r="I296" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J296" s="28"/>
       <c r="K296" s="29"/>
@@ -18668,7 +18665,7 @@
         <v>946</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E297" s="10">
         <v>4</v>
@@ -18699,7 +18696,7 @@
         <v>946</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E298" s="10">
         <v>4</v>
@@ -18715,7 +18712,7 @@
         <v>80</v>
       </c>
       <c r="I298" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J298" s="28"/>
       <c r="K298" s="22"/>
@@ -18732,7 +18729,7 @@
         <v>946</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E299" s="10">
         <v>4</v>
@@ -18763,7 +18760,7 @@
         <v>946</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E300" s="10">
         <v>4</v>
@@ -18779,7 +18776,7 @@
         <v>68</v>
       </c>
       <c r="I300" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J300" s="28"/>
       <c r="K300" s="22"/>
@@ -18796,7 +18793,7 @@
         <v>946</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E301" s="10">
         <v>4</v>
@@ -18812,7 +18809,7 @@
         <v>70</v>
       </c>
       <c r="I301" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J301" s="28"/>
       <c r="K301" s="22"/>
@@ -18829,7 +18826,7 @@
         <v>946</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E302" s="10">
         <v>4</v>
@@ -18860,7 +18857,7 @@
         <v>946</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E303" s="10">
         <v>4</v>
@@ -18876,7 +18873,7 @@
         <v>68</v>
       </c>
       <c r="I303" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J303" s="28"/>
       <c r="K303" s="22"/>
@@ -18893,7 +18890,7 @@
         <v>946</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E304" s="10">
         <v>4</v>
@@ -18924,7 +18921,7 @@
         <v>946</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E305" s="10">
         <v>4</v>
@@ -18957,7 +18954,7 @@
         <v>946</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E306" s="10">
         <v>4</v>
@@ -18973,7 +18970,7 @@
         <v>68</v>
       </c>
       <c r="I306" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J306" s="10">
         <v>1120</v>
@@ -18992,7 +18989,7 @@
         <v>946</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E307" s="10">
         <v>4</v>
@@ -19023,7 +19020,7 @@
         <v>946</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E308" s="10">
         <v>4</v>
@@ -19039,7 +19036,7 @@
         <v>68</v>
       </c>
       <c r="I308" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J308" s="28"/>
       <c r="K308" s="22"/>
@@ -19056,7 +19053,7 @@
         <v>946</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E309" s="10">
         <v>4</v>
@@ -19087,7 +19084,7 @@
         <v>946</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E310" s="10">
         <v>4</v>
@@ -19103,7 +19100,7 @@
         <v>68</v>
       </c>
       <c r="I310" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J310" s="28"/>
       <c r="K310" s="22"/>
@@ -19120,7 +19117,7 @@
         <v>946</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E311" s="10">
         <v>4</v>
@@ -19151,7 +19148,7 @@
         <v>946</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E312" s="10">
         <v>4</v>
@@ -19167,7 +19164,7 @@
         <v>68</v>
       </c>
       <c r="I312" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J312" s="28"/>
       <c r="K312" s="22"/>
@@ -19184,7 +19181,7 @@
         <v>946</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E313" s="10">
         <v>4</v>
@@ -19215,7 +19212,7 @@
         <v>946</v>
       </c>
       <c r="D314" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E314" s="10">
         <v>4</v>
@@ -19231,7 +19228,7 @@
         <v>68</v>
       </c>
       <c r="I314" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J314" s="28"/>
       <c r="K314" s="29"/>
@@ -19248,7 +19245,7 @@
         <v>946</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E315" s="10">
         <v>4</v>
@@ -19279,7 +19276,7 @@
         <v>946</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E316" s="10">
         <v>4</v>
@@ -19295,7 +19292,7 @@
         <v>68</v>
       </c>
       <c r="I316" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J316" s="28"/>
       <c r="K316" s="29"/>
@@ -19312,7 +19309,7 @@
         <v>946</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E317" s="10">
         <v>4</v>
@@ -19338,7 +19335,7 @@
         <v>946</v>
       </c>
       <c r="D318" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E318" s="10">
         <v>5</v>
@@ -19371,7 +19368,7 @@
         <v>946</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E319" s="10">
         <v>5</v>
@@ -19402,7 +19399,7 @@
         <v>946</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E320" s="10">
         <v>5</v>
@@ -19435,7 +19432,7 @@
         <v>946</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E321" s="10">
         <v>5</v>
@@ -19468,7 +19465,7 @@
         <v>946</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E322" s="10">
         <v>5</v>
@@ -19488,7 +19485,7 @@
       <c r="K322" s="22"/>
       <c r="L322" s="22"/>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" s="19">
         <v>43014</v>
       </c>
@@ -19499,7 +19496,7 @@
         <v>946</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E323" s="10">
         <v>5</v>
@@ -19519,13 +19516,13 @@
         <v>39</v>
       </c>
       <c r="K323" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L323" s="22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M323" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="324" spans="1:13" hidden="1">
@@ -19539,7 +19536,7 @@
         <v>946</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E324" s="10">
         <v>5</v>
@@ -19572,7 +19569,7 @@
         <v>946</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E325" s="10">
         <v>5</v>
@@ -19603,7 +19600,7 @@
         <v>946</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E326" s="10">
         <v>5</v>
@@ -19619,7 +19616,7 @@
         <v>80</v>
       </c>
       <c r="I326" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J326" s="10"/>
       <c r="K326" s="22"/>
@@ -19635,7 +19632,7 @@
         <v>946</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E327" s="10">
         <v>5</v>
@@ -19651,7 +19648,7 @@
         <v>80</v>
       </c>
       <c r="I327" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J327" s="28"/>
       <c r="K327" s="29"/>
@@ -19667,7 +19664,7 @@
         <v>946</v>
       </c>
       <c r="D328" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E328" s="10">
         <v>5</v>
@@ -19700,7 +19697,7 @@
         <v>946</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E329" s="10">
         <v>5</v>
@@ -19731,7 +19728,7 @@
         <v>946</v>
       </c>
       <c r="D330" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E330" s="10">
         <v>5</v>
@@ -19747,7 +19744,7 @@
         <v>80</v>
       </c>
       <c r="I330" s="22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J330" s="10"/>
       <c r="K330" s="22"/>
@@ -19763,7 +19760,7 @@
         <v>946</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E331" s="10">
         <v>5</v>
@@ -19794,7 +19791,7 @@
         <v>946</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E332" s="10">
         <v>5</v>
@@ -19827,7 +19824,7 @@
         <v>946</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E333" s="10">
         <v>5</v>
@@ -19858,7 +19855,7 @@
         <v>946</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E334" s="10">
         <v>5</v>
@@ -19891,7 +19888,7 @@
         <v>946</v>
       </c>
       <c r="D335" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E335" s="10">
         <v>5</v>
@@ -19924,7 +19921,7 @@
         <v>946</v>
       </c>
       <c r="D336" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E336" s="10">
         <v>5</v>
@@ -19955,7 +19952,7 @@
         <v>946</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E337" s="10">
         <v>5</v>
@@ -19988,7 +19985,7 @@
         <v>946</v>
       </c>
       <c r="D338" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E338" s="10">
         <v>5</v>
@@ -20019,7 +20016,7 @@
         <v>946</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E339" s="10">
         <v>5</v>
@@ -20052,7 +20049,7 @@
         <v>946</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E340" s="10">
         <v>5</v>
@@ -20083,7 +20080,7 @@
         <v>946</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E341" s="10">
         <v>5</v>
@@ -20116,7 +20113,7 @@
         <v>946</v>
       </c>
       <c r="D342" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E342" s="10">
         <v>5</v>
@@ -20147,7 +20144,7 @@
         <v>946</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E343" s="10">
         <v>5</v>
@@ -20180,7 +20177,7 @@
         <v>946</v>
       </c>
       <c r="D344" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E344" s="10">
         <v>5</v>
@@ -20211,7 +20208,7 @@
         <v>946</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E345" s="10">
         <v>5</v>
@@ -20244,7 +20241,7 @@
         <v>946</v>
       </c>
       <c r="D346" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E346" s="10">
         <v>5</v>
@@ -20275,7 +20272,7 @@
         <v>946</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E347" s="10">
         <v>5</v>
@@ -20306,7 +20303,7 @@
         <v>946</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E348" s="10">
         <v>5</v>
@@ -20339,7 +20336,7 @@
         <v>946</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E349" s="10">
         <v>5</v>
@@ -20370,7 +20367,7 @@
         <v>946</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E350" s="10">
         <v>5</v>
@@ -20401,7 +20398,7 @@
         <v>946</v>
       </c>
       <c r="D351" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E351" s="10">
         <v>5</v>
@@ -20421,7 +20418,7 @@
       <c r="K351" s="29"/>
       <c r="L351" s="22"/>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" hidden="1">
       <c r="A352" s="19">
         <v>43014</v>
       </c>
@@ -20432,7 +20429,7 @@
         <v>946</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E352" s="10">
         <v>5</v>
@@ -20452,13 +20449,13 @@
         <v>45</v>
       </c>
       <c r="K352" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L352" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M352" s="48" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="353" spans="1:13" hidden="1">
@@ -20472,7 +20469,7 @@
         <v>946</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E353" s="10">
         <v>5</v>
@@ -20503,7 +20500,7 @@
         <v>946</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E354" s="10">
         <v>5</v>
@@ -20536,7 +20533,7 @@
         <v>946</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E355" s="10">
         <v>5</v>
@@ -20569,7 +20566,7 @@
         <v>946</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E356" s="10">
         <v>5</v>
@@ -20600,7 +20597,7 @@
         <v>946</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E357" s="10">
         <v>5</v>
@@ -20633,7 +20630,7 @@
         <v>946</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E358" s="10">
         <v>5</v>
@@ -20664,7 +20661,7 @@
         <v>946</v>
       </c>
       <c r="D359" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E359" s="10">
         <v>5</v>
@@ -20697,7 +20694,7 @@
         <v>946</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E360" s="10">
         <v>5</v>
@@ -20713,7 +20710,7 @@
         <v>80</v>
       </c>
       <c r="I360" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J360" s="28"/>
       <c r="K360" s="29"/>
@@ -20729,7 +20726,7 @@
         <v>946</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E361" s="10">
         <v>5</v>
@@ -20762,7 +20759,7 @@
         <v>946</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E362" s="10">
         <v>5</v>
@@ -20793,7 +20790,7 @@
         <v>946</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E363" s="10">
         <v>5</v>
@@ -20826,7 +20823,7 @@
         <v>946</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E364" s="10">
         <v>5</v>
@@ -20846,7 +20843,7 @@
       <c r="K364" s="29"/>
       <c r="L364" s="22"/>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" hidden="1">
       <c r="A365" s="19">
         <v>43014</v>
       </c>
@@ -20857,7 +20854,7 @@
         <v>946</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E365" s="10">
         <v>5</v>
@@ -20883,7 +20880,7 @@
         <v>923</v>
       </c>
       <c r="M365" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="366" spans="1:13" hidden="1">
@@ -20897,7 +20894,7 @@
         <v>946</v>
       </c>
       <c r="D366" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E366" s="10">
         <v>5</v>
@@ -20928,7 +20925,7 @@
         <v>946</v>
       </c>
       <c r="D367" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E367" s="10">
         <v>5</v>
@@ -20961,7 +20958,7 @@
         <v>946</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E368" s="10">
         <v>5</v>
@@ -20981,7 +20978,7 @@
       <c r="K368" s="22"/>
       <c r="L368" s="22"/>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" hidden="1">
       <c r="A369" s="19">
         <v>43014</v>
       </c>
@@ -20992,7 +20989,7 @@
         <v>946</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E369" s="10">
         <v>5</v>
@@ -21032,7 +21029,7 @@
         <v>946</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E370" s="10">
         <v>5</v>
@@ -21063,7 +21060,7 @@
         <v>946</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E371" s="10">
         <v>5</v>
@@ -21096,7 +21093,7 @@
         <v>946</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E372" s="10">
         <v>5</v>
@@ -21116,7 +21113,7 @@
       <c r="K372" s="22"/>
       <c r="L372" s="22"/>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" hidden="1">
       <c r="A373" s="19">
         <v>43014</v>
       </c>
@@ -21127,7 +21124,7 @@
         <v>946</v>
       </c>
       <c r="D373" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E373" s="10">
         <v>5</v>
@@ -21167,7 +21164,7 @@
         <v>946</v>
       </c>
       <c r="D374" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E374" s="10">
         <v>5</v>
@@ -21198,7 +21195,7 @@
         <v>946</v>
       </c>
       <c r="D375" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E375" s="10">
         <v>5</v>
@@ -21229,7 +21226,7 @@
         <v>946</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E376" s="10">
         <v>5</v>
@@ -21249,7 +21246,7 @@
       <c r="K376" s="22"/>
       <c r="L376" s="22"/>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" hidden="1">
       <c r="A377" s="19">
         <v>43014</v>
       </c>
@@ -21260,7 +21257,7 @@
         <v>946</v>
       </c>
       <c r="D377" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E377" s="10">
         <v>5</v>
@@ -21283,10 +21280,10 @@
         <v>913</v>
       </c>
       <c r="L377" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M377" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="378" spans="1:13" hidden="1">
@@ -21300,7 +21297,7 @@
         <v>946</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E378" s="10">
         <v>5</v>
@@ -21331,7 +21328,7 @@
         <v>946</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E379" s="10">
         <v>5</v>
@@ -21364,7 +21361,7 @@
         <v>946</v>
       </c>
       <c r="D380" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E380" s="10">
         <v>5</v>
@@ -21380,7 +21377,7 @@
         <v>80</v>
       </c>
       <c r="I380" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J380" s="28"/>
       <c r="K380" s="22"/>
@@ -21396,7 +21393,7 @@
         <v>946</v>
       </c>
       <c r="D381" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E381" s="10">
         <v>5</v>
@@ -21429,7 +21426,7 @@
         <v>946</v>
       </c>
       <c r="D382" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E382" s="10">
         <v>5</v>
@@ -21449,7 +21446,7 @@
       <c r="K382" s="29"/>
       <c r="L382" s="22"/>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" hidden="1">
       <c r="A383" s="19">
         <v>43014</v>
       </c>
@@ -21460,7 +21457,7 @@
         <v>946</v>
       </c>
       <c r="D383" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E383" s="10">
         <v>5</v>
@@ -21480,13 +21477,13 @@
         <v>56</v>
       </c>
       <c r="K383" s="29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L383" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M383" s="32" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="384" spans="1:13" hidden="1">
@@ -21500,7 +21497,7 @@
         <v>946</v>
       </c>
       <c r="D384" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E384" s="10">
         <v>5</v>
@@ -21520,7 +21517,7 @@
       <c r="K384" s="29"/>
       <c r="L384" s="22"/>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" hidden="1">
       <c r="A385" s="19">
         <v>43014</v>
       </c>
@@ -21531,7 +21528,7 @@
         <v>946</v>
       </c>
       <c r="D385" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E385" s="10">
         <v>5</v>
@@ -21551,16 +21548,16 @@
         <v>58</v>
       </c>
       <c r="K385" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L385" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M385" s="48" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" hidden="1">
       <c r="A386" s="19">
         <v>43014</v>
       </c>
@@ -21571,7 +21568,7 @@
         <v>946</v>
       </c>
       <c r="D386" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E386" s="10">
         <v>5</v>
@@ -21591,13 +21588,13 @@
         <v>59</v>
       </c>
       <c r="K386" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L386" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M386" s="48" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="387" spans="1:13" hidden="1">
@@ -21611,7 +21608,7 @@
         <v>946</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E387" s="10">
         <v>5</v>
@@ -21642,7 +21639,7 @@
         <v>946</v>
       </c>
       <c r="D388" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E388" s="10">
         <v>5</v>
@@ -21658,7 +21655,7 @@
         <v>80</v>
       </c>
       <c r="I388" s="22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J388" s="10"/>
       <c r="K388" s="22"/>
@@ -21674,7 +21671,7 @@
         <v>946</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E389" s="10">
         <v>5</v>
@@ -21707,7 +21704,7 @@
         <v>946</v>
       </c>
       <c r="D390" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E390" s="10">
         <v>5</v>
@@ -21738,7 +21735,7 @@
         <v>946</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E391" s="10">
         <v>5</v>
@@ -21754,7 +21751,7 @@
         <v>80</v>
       </c>
       <c r="I391" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J391" s="10"/>
       <c r="K391" s="22"/>
@@ -21770,7 +21767,7 @@
         <v>946</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E392" s="10">
         <v>5</v>
@@ -21801,7 +21798,7 @@
         <v>946</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E393" s="10">
         <v>5</v>
@@ -21817,12 +21814,12 @@
         <v>80</v>
       </c>
       <c r="I393" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J393" s="10"/>
       <c r="K393" s="22"/>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" hidden="1">
       <c r="A394" s="19">
         <v>43014</v>
       </c>
@@ -21833,7 +21830,7 @@
         <v>946</v>
       </c>
       <c r="D394" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E394" s="10">
         <v>5</v>
@@ -21853,13 +21850,13 @@
         <v>60</v>
       </c>
       <c r="K394" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L394" s="22" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M394" s="43" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="395" spans="1:13" hidden="1">
@@ -21873,7 +21870,7 @@
         <v>946</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E395" s="10">
         <v>5</v>
@@ -21889,7 +21886,7 @@
         <v>80</v>
       </c>
       <c r="I395" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J395" s="10"/>
       <c r="K395" s="22"/>
@@ -21905,7 +21902,7 @@
         <v>946</v>
       </c>
       <c r="D396" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E396" s="10">
         <v>5</v>
@@ -21936,7 +21933,7 @@
         <v>946</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E397" s="10">
         <v>5</v>
@@ -21952,7 +21949,7 @@
         <v>80</v>
       </c>
       <c r="I397" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J397" s="10"/>
       <c r="K397" s="22"/>
@@ -21968,7 +21965,7 @@
         <v>946</v>
       </c>
       <c r="D398" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E398" s="10">
         <v>5</v>
@@ -21993,7 +21990,7 @@
   <autoFilter ref="A1:T399" xr:uid="{900E0AE2-D50A-4D52-B771-044C3E85A7D8}">
     <filterColumn colId="7">
       <filters>
-        <filter val="HC"/>
+        <filter val="EU"/>
       </filters>
     </filterColumn>
   </autoFilter>
